--- a/Nº de computadores.xlsx
+++ b/Nº de computadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesar_macieira\Desktop\Usiminas\Nescon\censo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B2E274-0CDC-419E-8E6B-A0E647F181F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9E0882-E278-4A71-B1DB-6FF912952C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,12 +369,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -418,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -479,6 +485,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -780,7 +789,7 @@
   <dimension ref="B1:AT84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AR11" sqref="AR11"/>
+      <selection activeCell="AR3" sqref="AR3:AT11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1943,8 +1952,8 @@
       <c r="AR10" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="AS10" s="10">
-        <v>2664</v>
+      <c r="AS10" s="22">
+        <v>38603</v>
       </c>
       <c r="AT10" s="10">
         <v>18693</v>
@@ -2076,7 +2085,7 @@
       </c>
       <c r="AS11" s="6">
         <f>+SUM(AS4:AS10)</f>
-        <v>291562</v>
+        <v>327501</v>
       </c>
       <c r="AT11" s="6">
         <f>+SUM(AT4:AT10)</f>
@@ -8488,8 +8497,8 @@
         <v>1.0000000000000011</v>
       </c>
       <c r="AO84" s="17">
-        <f>SUM(AO25:AO83)</f>
-        <v>2664</v>
+        <f>SUM(AO4:AO83)</f>
+        <v>38603</v>
       </c>
       <c r="AP84" s="17">
         <f>SUM(AP4:AP83)</f>
